--- a/data/trans_orig/P77_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P77_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BBA004-7BFC-4F09-8863-F83BA8868107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3936FC4-2C8A-40C7-B46F-4BC5D2E7F618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86A24CFB-6DA2-44EA-A23E-E467FFBE4004}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1734E5DD-E1C0-4AC1-ACB2-339C48E73A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
   <si>
     <t>Población según cual es el sustentador principal del hogar en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
   </si>
   <si>
     <t>38,67%</t>
   </si>
   <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
   </si>
   <si>
     <t>ADULTO QUE CONTESTA POR EL NIÑO/A</t>
@@ -107,13 +107,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,43%</t>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -122,157 +122,169 @@
     <t>0,01%</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>ADULTO SELECCIONADO y realiza encuesta</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>ADULTO SELECCIONADO y realiza encuesta</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -281,82 +293,76 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,46%</t>
+    <t>0,5%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>45,88%</t>
   </si>
   <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,23%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -365,28 +371,28 @@
     <t>84,28%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>53,71%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>68,09%</t>
   </si>
   <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB274046-6A86-494F-BAA6-297EE1A21DAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CC3445-CE36-4703-92D1-1083E6C56F1F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1296,7 +1302,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -1394,7 +1400,7 @@
         <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1403,13 +1409,13 @@
         <v>2746</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1418,13 +1424,13 @@
         <v>2746</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,13 +1445,13 @@
         <v>597940</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>796</v>
@@ -1454,13 +1460,13 @@
         <v>535370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>1423</v>
@@ -1469,13 +1475,13 @@
         <v>1133311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1549,13 @@
         <v>521285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>2248</v>
@@ -1558,28 +1564,28 @@
         <v>1743090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>2577</v>
       </c>
       <c r="N16" s="7">
-        <v>2264376</v>
+        <v>2264375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1600,13 @@
         <v>9611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1609,13 +1615,13 @@
         <v>15693</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -1624,13 +1630,13 @@
         <v>25304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1642,16 +1648,16 @@
         <v>3026</v>
       </c>
       <c r="D18" s="7">
-        <v>2845799</v>
+        <v>2845798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>3087</v>
@@ -1660,28 +1666,28 @@
         <v>2040577</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>6113</v>
       </c>
       <c r="N18" s="7">
-        <v>4886376</v>
+        <v>4886375</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,7 +1699,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -1723,7 +1729,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -1737,7 +1743,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P77_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P77_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3936FC4-2C8A-40C7-B46F-4BC5D2E7F618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F82E8C5-9654-47AB-AAF8-D763E9F882FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1734E5DD-E1C0-4AC1-ACB2-339C48E73A8D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28C1D97F-B9B4-4482-8D2E-3643B1525A43}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CC3445-CE36-4703-92D1-1083E6C56F1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9D6446-CFC5-4907-A354-BC1463195F9E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
